--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43464B32-D8DE-43C9-90B6-C417D361289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183207E9-1F53-4BF3-AC28-33E9A5306B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mexam" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -60,9 +60,6 @@
     <t>D1175125</t>
   </si>
   <si>
-    <t>黃品喆</t>
-  </si>
-  <si>
     <t>Pierre</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>D1172268</t>
   </si>
   <si>
-    <t>佘峻宇</t>
-  </si>
-  <si>
     <t>Owen</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>D1189290</t>
   </si>
   <si>
-    <t>許博琮</t>
-  </si>
-  <si>
     <t>Terry</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>D1228792</t>
   </si>
   <si>
-    <t>楊智臣</t>
-  </si>
-  <si>
     <t>Jason</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>D1228803</t>
   </si>
   <si>
-    <t>陳宣妤</t>
-  </si>
-  <si>
     <t>Adeline</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>D1228817</t>
   </si>
   <si>
-    <t>黃政睿</t>
-  </si>
-  <si>
     <t>Rey</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>D1262015</t>
   </si>
   <si>
-    <t>張宇呈</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>D1262028</t>
   </si>
   <si>
-    <t>李皓鈞</t>
-  </si>
-  <si>
     <t>Jimmy</t>
   </si>
   <si>
@@ -156,9 +132,6 @@
     <t>D1262032</t>
   </si>
   <si>
-    <t>劉哲瑋</t>
-  </si>
-  <si>
     <t>Derek</t>
   </si>
   <si>
@@ -168,9 +141,6 @@
     <t>D1262058</t>
   </si>
   <si>
-    <t>謝柏尉</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -180,9 +150,6 @@
     <t>D1262062</t>
   </si>
   <si>
-    <t>邱畇諠</t>
-  </si>
-  <si>
     <t>Aimee</t>
   </si>
   <si>
@@ -192,9 +159,6 @@
     <t>D1262075</t>
   </si>
   <si>
-    <t>陳映聿</t>
-  </si>
-  <si>
     <t>Morris</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>D1262089</t>
   </si>
   <si>
-    <t>蔡睿宇</t>
-  </si>
-  <si>
     <t>Ray</t>
   </si>
   <si>
@@ -216,9 +177,6 @@
     <t>D1262092</t>
   </si>
   <si>
-    <t>陳彥勻</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -228,9 +186,6 @@
     <t>D1265065</t>
   </si>
   <si>
-    <t>曾語晨</t>
-  </si>
-  <si>
     <t>Corrine</t>
   </si>
   <si>
@@ -240,9 +195,6 @@
     <t>D1265154</t>
   </si>
   <si>
-    <t>曾郁珊</t>
-  </si>
-  <si>
     <t>Mina</t>
   </si>
   <si>
@@ -252,9 +204,6 @@
     <t>D1265209</t>
   </si>
   <si>
-    <t>王子宸</t>
-  </si>
-  <si>
     <t>Jensen</t>
   </si>
   <si>
@@ -264,9 +213,6 @@
     <t>D1265273</t>
   </si>
   <si>
-    <t>葉緯圻</t>
-  </si>
-  <si>
     <t>Joshua</t>
   </si>
   <si>
@@ -276,9 +222,6 @@
     <t>D1265315</t>
   </si>
   <si>
-    <t>張子桓</t>
-  </si>
-  <si>
     <t>Harrison</t>
   </si>
   <si>
@@ -288,9 +231,6 @@
     <t>D1265672</t>
   </si>
   <si>
-    <t>王崧喻</t>
-  </si>
-  <si>
     <t>Charlie</t>
   </si>
   <si>
@@ -300,18 +240,12 @@
     <t>D1265686</t>
   </si>
   <si>
-    <t>何柏勳</t>
-  </si>
-  <si>
     <t>Jacky</t>
   </si>
   <si>
     <t>D1271403</t>
   </si>
   <si>
-    <t>王祺</t>
-  </si>
-  <si>
     <t>Osmond</t>
   </si>
   <si>
@@ -321,9 +255,6 @@
     <t>D1271450</t>
   </si>
   <si>
-    <t>李宇恩</t>
-  </si>
-  <si>
     <t>Eileen</t>
   </si>
   <si>
@@ -331,89 +262,19 @@
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Question 1(35%)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Question 2(30%)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Question 3(35%)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: -20
-Wrongly handle error exception(-10)
-Output in incorrect format(-10)
-Question 2: great
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 3:</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: -14
-Wrongly handle error exception(-10)
-Output in incorrect format(-4)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Question 2: -28
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Didn't initialize variable "first_day"(-4)
-Incorrect calculation in weekday of  "first_day"(-4)
-Incorrect calculation in weekday of Thanksgiving day(-10)
-Incorrect calculation in weekday of Independence day(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Question 1: great
@@ -421,129 +282,7 @@
 Without solution(-30)
 Question 3:-35
 Without solution(-35)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Question 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 2: -10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect calculation in Independence day(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 3:</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Question 2: -20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect calculation in Independence day(-10)
-Incorrect calculaton in Thanksgiving day(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 3: -20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Incorrect assigning value of num(-10)
-Incorrect calculation in reverse number(-10)</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -576,7 +315,7 @@
 Incorrect output in reverse hexadecimal representation(-10)
 Incorrect type when declaring variable(-4)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -617,7 +356,7 @@
 Output in incorrect format(-10)
 Incorrect output in hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Question 1: -24
@@ -631,7 +370,7 @@
 Using variable without initialization(-4)
 Incorrect output in hexadecimal representation(-10)
 Incorrect calculation in reverse number(-10)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -663,7 +402,7 @@
 Output in incorrect format(-10)
 Incorrect output in hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -722,7 +461,7 @@
 Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -799,7 +538,7 @@
 Incorrect output in binary representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -880,7 +619,7 @@
 Incorrect output in reverse decimal representation(-10)
 Incorrect output in reverse hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -943,7 +682,7 @@
       </rPr>
       <t>Without output in reverse decimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1017,14 +756,1085 @@
 Incorrect output in binary representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: -20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect calculation in Independence day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Without semicolons at the end of line(-4)
+Using variable "rev" without assigned value(-4)
+Output in incorrect format(-10)
+Incorrect output in binary representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -35
+Wrongly using comparison operator "=="(-4)
+Incorrect parameters in scanf()(-10)
+Incorrect parameters in printf()(-4)
+Wrongly using 2-dimensional array(-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: -20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect calculation in Independence day(-10)
+Incorrect calculaton in Thanksgiving day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHOULD BE -30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrong output specifier in printf()(-4)
+Output in incorrect format(-10)
+Incorrect output in binary representation(-10)
+Incorrect output in hexadecimal representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -35
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect parameters in scanf()(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wrong input specifier in scanf()(-10)
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect calculation in Independence day(-10)
+Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Output in incorrect format(-10)
+Incorrect for-loop condition(-4)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -30
+Incorrect parameters in scanf()(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHOULD BE -35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: -10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -35
+Incorrect if-else condition(-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Output in incorrect format(-10)
+Incorrect output in binary representation(-10)
+Incorrect output in hexadecimal representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -35
+Incorrect parameters in scanf()(-4)
+Wrongly using 2-dimensional array(-4)
+Incorrect parameters in scanf()(-4)
+Using array "C" without initialization(-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: -10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Output in incorrect format(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wrongly handle error exception(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -14
+Using variable "count" without initialization(-4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect output in hexadecimal representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -24
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+Incorrect for-loop statement(-4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -10
+Incorrect calculaton in Thanksgiving day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -35
+Output in incorrect format(-10)
+Incorrect output in binary representation(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect output in hexadecimal representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -35
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">STRUCTURAL MISTAKE(-35)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -30
+Using "else if" without "if"(-4)
+Unnecessary scanf()(-8)
+Incorrect calculaton in Independence day(-10)
+Incorrect calculaton in Thanksgiving day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -35
+Output in incorrect format(-10)
+Incorrect output in binary representation(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incorrect output in hexadecimal representation(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -35
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">STRUCTURAL MISTAKE(-35)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -10
+Incorrect calculaton in Thanksgiving day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -35
+STRUCTURAL MISTAKE(-35)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: -35
+Incorrect parameters in scanf()(-10)
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+Incorrect if-else condition(-4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wrongly using comparison operator "=="(-4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incorrect calculation in Independence day(-10)
+Incorrect calculaton in Thanksgiving day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Incorrect assigning value of num(-10)
+Incorrect calculation in reverse number(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Question 1: -14
+Wrongly handle error exception(-10)
+Output in incorrect format(-4)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 2: -28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Didn't initialize variable "first_day"(-4)
+Incorrect calculation in weekday of  "first_day"(-4)
+Incorrect calculation in weekday of Thanksgiving day(-10)
+Incorrect calculation in weekday of Independence day(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly using comparison operator "=="(-10)
+Wrong output specifier in printf()(-4)
+Using variable "num" without initialization(-4)
+Wrong assignment in char array "hexi"(-4)
+Incorrect output in reverse hexadecimal representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Question 1: -20
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+Question 2: great
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Function "reverseb" didn't match(-4)
+Output in incorrect format(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>黃品喆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>佘峻宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>許博琮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楊智臣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳宣妤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃政睿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張宇呈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李皓鈞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>劉哲瑋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>謝柏尉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>邱畇諠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳映聿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蔡睿宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳彥勻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曾語晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曾郁珊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王子宸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>葉緯圻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張子桓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王崧喻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>何柏勳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王祺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李宇恩</t>
+    </r>
+  </si>
+  <si>
+    <t>Question 1: -35
+Without solution(-35)
+Question 2: -10
+Incorrect calculation in Independence day(-10)
+Question 3: -35
+Without solution(-35)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1055,19 +1865,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="PMingLiu"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1089,6 +1888,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1153,9 +1958,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,9 +1989,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1199,9 +2001,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1211,22 +2010,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,27 +2304,27 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.73046875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.77734375" style="4" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.15" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.8" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1545,36 +2341,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="219" thickBot="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>14</v>
@@ -1582,29 +2378,32 @@
       <c r="G2" s="2">
         <v>28</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="12">
         <f>100-SUM(F2:H2)</f>
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="2">
         <v>28</v>
@@ -1615,29 +2414,29 @@
       <c r="H3" s="2">
         <v>28</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="I3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="12">
         <f t="shared" ref="J3:J23" si="0">100-SUM(F3:H3)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="77.25" thickBot="1">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="125.4" thickBot="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>20</v>
@@ -1645,29 +2444,32 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="H4" s="2">
+        <v>24</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="77.25" thickBot="1">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="78.599999999999994" thickBot="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1678,29 +2480,32 @@
       <c r="H5" s="2">
         <v>35</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="108" thickBot="1">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
@@ -1708,29 +2513,29 @@
       <c r="H6" s="2">
         <v>20</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="I6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="169.5" thickBot="1">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="172.2" thickBot="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
+      <c r="B7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>24</v>
@@ -1741,56 +2546,62 @@
       <c r="H7" s="2">
         <v>24</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="61.9" thickBot="1">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="94.2" thickBot="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="H8" s="2">
+        <v>35</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>35</v>
@@ -1801,29 +2612,29 @@
       <c r="H9" s="2">
         <v>24</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>20</v>
@@ -1834,29 +2645,29 @@
       <c r="H10" s="2">
         <v>30</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="I10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="200.25" thickBot="1">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="2">
         <v>24</v>
@@ -1867,29 +2678,29 @@
       <c r="H11" s="2">
         <v>35</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="200.25" thickBot="1">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="2">
         <v>24</v>
@@ -1900,29 +2711,29 @@
       <c r="H12" s="2">
         <v>34</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="2">
         <v>24</v>
@@ -1933,29 +2744,29 @@
       <c r="H13" s="2">
         <v>30</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="I13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="138.75" thickBot="1">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="141" thickBot="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>35</v>
@@ -1966,29 +2777,29 @@
       <c r="H14" s="2">
         <v>10</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="2">
         <v>35</v>
@@ -1999,217 +2810,316 @@
       <c r="H15" s="2">
         <v>30</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="172.2" thickBot="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="265.8" thickBot="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2">
+        <v>35</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="12">
+        <f>100-SUM(F17:H17)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13">
+        <v>55</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
+        <v>24</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13">
+        <v>58</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>35</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="30.75">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="125.4" thickBot="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="12">
+        <f>100-SUM(F21:H21)</f>
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30.75">
+    <row r="22" spans="1:10" ht="172.2" thickBot="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="13">
+        <v>13</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="2">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
+        <v>35</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30.75">
+    <row r="23" spans="1:10" ht="187.8" thickBot="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="13">
+        <v>69</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2">
+        <v>35</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30.75">
+    <row r="24" spans="1:10" ht="94.2" thickBot="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>94</v>
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2">
+        <v>35</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>35</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <f>100-SUM(F24:H24)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
     <sortCondition ref="B2:B24"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1.25972222222222" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2223,23 +3133,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -2486,8 +3379,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2499,7 +3409,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183207E9-1F53-4BF3-AC28-33E9A5306B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C0C4E5-6D39-4E7F-8F90-8022AFA45EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="684" windowWidth="20760" windowHeight="14448" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mexam" sheetId="8" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mexam!$E$1:$J$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">mexam!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>No</t>
   </si>
@@ -1829,12 +1831,226 @@
 Without solution(-35)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Leading blanks</t>
+  </si>
+  <si>
+    <t>print terms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有印</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">terms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>印出有小部分缺失</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">constant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒印</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of equation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>放錯位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>放錯位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validation of equation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>寫錯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>寫錯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input constant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Validation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+  </si>
+  <si>
+    <t>input terms and constant</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>error exception</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero terms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>leading terms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 or -1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>other number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>alignment and blanks</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1895,13 +2111,25 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1960,7 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,6 +2252,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2303,11 +2546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -3132,7 +3375,1048 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D00D2D-AB9C-40E6-B05F-86278D418A79}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <f>35-SUM(E3:M3)</f>
+        <v>31</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <f>35-SUM(E4:M4)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f>35-SUM(E5:M5)</f>
+        <v>28</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <f>35-SUM(E6:M6)</f>
+        <v>35</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D25" si="0">35-SUM(E7:M7)</f>
+        <v>35</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
+        <v>5</v>
+      </c>
+      <c r="J26" s="8">
+        <v>5</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4</v>
+      </c>
+      <c r="L26" s="8">
+        <v>4</v>
+      </c>
+      <c r="M26" s="8">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8">
+        <v>4</v>
+      </c>
+      <c r="O26" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="62.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="31.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="30.6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8">
+        <v>5</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="45.6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="46.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="46.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="46.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" ht="46.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -3379,7 +4663,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
@@ -3387,29 +4671,20 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C0C4E5-6D39-4E7F-8F90-8022AFA45EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D1BC6-0E7C-49B9-8503-A0C77CDB2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="684" windowWidth="20760" windowHeight="14448" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mexam" sheetId="8" r:id="rId1"/>
     <sheet name="Question 1" sheetId="9" r:id="rId2"/>
+    <sheet name="Question 2" sheetId="11" r:id="rId3"/>
+    <sheet name="Question 3" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mexam!$E$1:$J$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">mexam!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -264,19 +265,19 @@
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Question 1(35%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Question 2(30%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Question 3(35%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Question 1: great
@@ -284,7 +285,7 @@
 Without solution(-30)
 Question 3:-35
 Without solution(-35)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -317,7 +318,7 @@
 Incorrect output in reverse hexadecimal representation(-10)
 Incorrect type when declaring variable(-4)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -358,7 +359,7 @@
 Output in incorrect format(-10)
 Incorrect output in hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Question 1: -24
@@ -372,7 +373,7 @@
 Using variable without initialization(-4)
 Incorrect output in hexadecimal representation(-10)
 Incorrect calculation in reverse number(-10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -404,7 +405,7 @@
 Output in incorrect format(-10)
 Incorrect output in hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,7 +464,7 @@
 Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -540,151 +541,7 @@
 Incorrect output in binary representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 1: -24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Wrongly handle error exception(-10)
-Output in incorrect format(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 2: -20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Incorrect calculation in Independence day(-10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Incorrect calculaton in Thanksgiving day(-10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Question 3: -30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Output in incorrect format(-10)
-Incorrect output in reverse decimal representation(-10)
-Incorrect output in reverse hexadecimal representation(-10)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 1: -35
-Wrong input specifier in scanf()(-8)
-Without semicolons at the end of line(-4)
-Incorrect using of  '}' at for-loop and do-while(-10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Wrongly handle error exception(-10)
-Output in incorrect format(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 2: great</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Question 3: -10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Without output in reverse decimal representation(-10)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -758,7 +615,7 @@
 Incorrect output in binary representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -849,7 +706,7 @@
 Incorrect output in binary representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -946,7 +803,7 @@
 Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1040,7 +897,7 @@
 Incorrect for-loop condition(-4)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1134,7 +991,7 @@
 Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1209,7 +1066,7 @@
       <t>Output in incorrect format(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1280,7 +1137,7 @@
       <t>Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1336,7 +1193,7 @@
       <t>Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1393,7 +1250,7 @@
       <t>Incorrect output in hexadecimal representation(-10)
 Incorrect output in reverse number representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1435,7 +1292,7 @@
       <t>Question 3: -35
 STRUCTURAL MISTAKE(-35)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1503,13 +1360,735 @@
 Incorrect assigning value of num(-10)
 Incorrect calculation in reverse number(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Question 1: -20
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+Question 2: great
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 3: -24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Function "reverseb" didn't match(-4)
+Output in incorrect format(-10)
+Incorrect output in reverse number representation(-10)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>黃品喆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>佘峻宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>許博琮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楊智臣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳宣妤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃政睿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張宇呈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李皓鈞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>劉哲瑋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>謝柏尉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>邱畇諠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳映聿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蔡睿宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳彥勻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曾語晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曾郁珊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王子宸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>葉緯圻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張子桓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王崧喻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>何柏勳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王祺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李宇恩</t>
+    </r>
+  </si>
+  <si>
+    <t>Question 1: -35
+Without solution(-35)
+Question 2: -10
+Incorrect calculation in Independence day(-10)
+Question 3: -35
+Without solution(-35)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leading blanks</t>
+  </si>
+  <si>
+    <t>print terms</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有印</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">terms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>印出有小部分缺失</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">constant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒印</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of equation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>放錯位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>放錯位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validation of equation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>寫錯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validation of variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>寫錯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input constant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Validation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>沒有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+  </si>
+  <si>
+    <t>input terms and constant</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>error exception</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero terms</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>leading terms</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 or -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>other number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alignment and blanks</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>print Labor Day</t>
+  </si>
+  <si>
+    <t>count of Independence day</t>
+  </si>
+  <si>
+    <t>weekday of Independence day</t>
+  </si>
+  <si>
+    <t>print Independence day</t>
+  </si>
+  <si>
+    <t>count of Thanksgiving day</t>
+  </si>
+  <si>
+    <t>weekday of Nov 1st</t>
+  </si>
+  <si>
+    <t>day of Thanksgiving day</t>
+  </si>
+  <si>
+    <t>print Thanksgiving day</t>
+  </si>
+  <si>
+    <t>print Binary</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>print Hexadecimal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse calculation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>print reverse decimal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>print reverse Binary</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>print reverse Hexadecimal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: -20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Incorrect calculation in Independence day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Incorrect calculaton in Thanksgiving day(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -30
+Incorrect format "^0" behind printf()(-0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Output in incorrect format(-10)
+Incorrect output in reverse decimal representation(-10)
+Incorrect output in reverse hexadecimal representation(-10)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 1: -35
+Wrong input specifier in scanf()(-8)
+Without semicolons at the end of line(-4)
+Incorrect using of  '}' at for-loop and do-while(-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Wrongly handle error exception(-10)
+Output in incorrect format(-10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Question 2: great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Question 3: -10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Without output in reverse decimal representation(-10)
+Variable "ww" should %7(-0)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question 3: -35
+Wrongly printing binary(-8)
+Wrongly printing hexadecimal(-8)
+Incorrect calculation of reverse number(-8)
+Wrongly printing reverse decimal(-3)
+Wrongly printing reverse binary(-4)
+Wrongly printing reverse hexadecimal(-4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question 2: -30
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Wrongly printing Independence Day(-2)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+Question 3: -35
+Wrongly printing binary(-8)
+Wrongly printing hexadecimal(-8)
+Incorrect calculation of reverse number(-8)
+Wrongly printing reverse decimal(-3)
+Wrongly printing reverse binary(-4)
+Wrongly printing reverse hexadecimal(-4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Question 1: -14
 Wrongly handle error exception(-10)
 Output in incorrect format(-4)
+Question 2: -30
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Wrongly printing Independence Day(-2)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+Question 3: -35
+Wrongly printing binary(-8)
+Wrongly printing hexadecimal(-8)
+Incorrect calculation of reverse number(-8)
+Wrongly printing reverse decimal(-3)
+Wrongly printing reverse binary(-4)
+Wrongly printing reverse hexadecimal(-4)
 </t>
     </r>
     <r>
@@ -1529,8 +2108,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Didn't initialize variable "first_day"(-4)
-Incorrect calculation in weekday of  "first_day"(-4)
+      <t xml:space="preserve">Didn't initialize variable "first_day"(-0)
 Incorrect calculation in weekday of Thanksgiving day(-10)
 Incorrect calculation in weekday of Independence day(-10)
 </t>
@@ -1558,504 +2136,59 @@
 Wrong assignment in char array "hexi"(-4)
 Incorrect output in reverse hexadecimal representation(-10)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: -20
-Wrongly handle error exception(-10)
-Output in incorrect format(-10)
-Question 2: great
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Question 3: -24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Function "reverseb" didn't match(-4)
-Output in incorrect format(-10)
-Incorrect output in reverse number representation(-10)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>黃品喆</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>佘峻宇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>許博琮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>楊智臣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳宣妤</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃政睿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張宇呈</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李皓鈞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>劉哲瑋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>謝柏尉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>邱畇諠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳映聿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蔡睿宇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳彥勻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>曾語晨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>曾郁珊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>王子宸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>葉緯圻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張子桓</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>王崧喻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>何柏勳</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>王祺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PMingLiu"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李宇恩</t>
-    </r>
-  </si>
-  <si>
-    <t>Question 1: -35
-Without solution(-35)
-Question 2: -10
-Incorrect calculation in Independence day(-10)
-Question 3: -35
-Without solution(-35)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leading blanks</t>
-  </si>
-  <si>
-    <t>print terms</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>都有印</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">terms </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>印出有小部分缺失</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">constant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>沒印</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validation of equation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>放錯位置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validation of variable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>放錯位置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Validation of equation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>寫錯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validation of variable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>寫錯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>沒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Input constant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>都有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Input</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>都有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Validation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>沒有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>continue</t>
-    </r>
-  </si>
-  <si>
-    <t>input terms and constant</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>error exception</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero terms</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>leading terms</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 or -1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>other number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>alignment and blanks</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect count calculation of Independence Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect weekday of Independence Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing Independence Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect count calculation of Thanksgiving Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect weekday of Nov 1st(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect day of Thanksgiving Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly printing Thanksgiving Day(-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 2: </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2116,6 +2249,33 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2184,16 +2344,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2205,75 +2368,248 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{F0B30814-C85D-495C-BC85-008EF7A0263B}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2544,30 +2880,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.46484375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.53125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.796875" style="4" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.8" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="219" thickBot="1">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="409.6" thickBot="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2607,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
@@ -2625,14 +2961,14 @@
         <v>32</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="J2" s="12">
         <f>100-SUM(F2:H2)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2640,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>10</v>
@@ -2665,7 +3001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="125.4" thickBot="1">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="123.4" thickBot="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2673,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>13</v>
@@ -2691,14 +3027,14 @@
         <v>24</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="78.599999999999994" thickBot="1">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="77.25" thickBot="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2706,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>16</v>
@@ -2731,7 +3067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="184.9" thickBot="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2739,7 +3075,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>19</v>
@@ -2757,14 +3093,14 @@
         <v>20</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="172.2" thickBot="1">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="169.5" thickBot="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2772,7 +3108,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>22</v>
@@ -2797,7 +3133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="94.2" thickBot="1">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="92.65" thickBot="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2805,7 +3141,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>25</v>
@@ -2823,14 +3159,14 @@
         <v>35</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2838,7 +3174,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>28</v>
@@ -2863,7 +3199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2871,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>31</v>
@@ -2896,7 +3232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="200.25" thickBot="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2904,7 +3240,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>34</v>
@@ -2929,7 +3265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="200.25" thickBot="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2937,7 +3273,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>37</v>
@@ -2962,7 +3298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="169.5" thickBot="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2970,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>40</v>
@@ -2988,14 +3324,14 @@
         <v>30</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="141" thickBot="1">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3003,7 +3339,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>43</v>
@@ -3021,14 +3357,14 @@
         <v>10</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3036,7 +3372,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>46</v>
@@ -3054,14 +3390,14 @@
         <v>30</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="172.2" thickBot="1">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="169.5" thickBot="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3069,7 +3405,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>49</v>
@@ -3087,14 +3423,14 @@
         <v>35</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="265.8" thickBot="1">
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="261.75" thickBot="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3102,7 +3438,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>52</v>
@@ -3120,14 +3456,14 @@
         <v>35</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" s="12">
         <f>100-SUM(F17:H17)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="184.9" thickBot="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3135,7 +3471,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>55</v>
@@ -3153,14 +3489,14 @@
         <v>24</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="203.4" thickBot="1">
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="200.25" thickBot="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3168,7 +3504,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>58</v>
@@ -3186,14 +3522,14 @@
         <v>35</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="187.8" thickBot="1">
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="184.9" thickBot="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3201,7 +3537,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>61</v>
@@ -3219,14 +3555,14 @@
         <v>20</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="125.4" thickBot="1">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="123.4" thickBot="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3234,7 +3570,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>64</v>
@@ -3252,14 +3588,14 @@
         <v>20</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" s="12">
         <f>100-SUM(F21:H21)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="172.2" thickBot="1">
+    <row r="22" spans="1:10" ht="169.5" thickBot="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3267,7 +3603,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>13</v>
@@ -3285,14 +3621,14 @@
         <v>35</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="187.8" thickBot="1">
+    <row r="23" spans="1:10" ht="184.9" thickBot="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3300,7 +3636,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>69</v>
@@ -3318,14 +3654,14 @@
         <v>35</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="94.2" thickBot="1">
+    <row r="24" spans="1:10" ht="92.65" thickBot="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3333,7 +3669,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>72</v>
@@ -3351,18 +3687,29 @@
         <v>35</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J24" s="12">
         <f>100-SUM(F24:H24)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="J25" s="5">
+        <f>AVERAGE(J2:J24)</f>
+        <v>29.608695652173914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="241.9">
+      <c r="I26" s="36" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
     <sortCondition ref="B2:B24"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1.25972222222222" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3377,36 +3724,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D00D2D-AB9C-40E6-B05F-86278D418A79}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="28"/>
+    <col min="5" max="5" width="15.796875" style="2" customWidth="1"/>
+    <col min="6" max="13" width="15.796875" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>144</v>
+      <c r="D1" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="E1" s="8">
         <v>1</v>
@@ -3435,45 +3781,41 @@
       <c r="M1" s="8">
         <v>4</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="30.75">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3514,10 +3856,8 @@
       <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -3558,10 +3898,8 @@
       <c r="M4" s="8">
         <v>4</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3602,10 +3940,8 @@
       <c r="M5" s="8">
         <v>2</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3646,10 +3982,8 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3661,21 +3995,37 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" ref="D7:D25" si="0">35-SUM(E7:M7)</f>
-        <v>35</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3687,7 +4037,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -3695,17 +4045,29 @@
       <c r="F8" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="24">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3716,22 +4078,38 @@
         <v>25</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15">
+        <f>35-SUM(E9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="24">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3742,22 +4120,38 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15">
+        <f>35-SUM(E10:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="K10" s="24">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4</v>
+      </c>
+      <c r="M10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -3769,21 +4163,37 @@
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -3795,21 +4205,37 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -3821,21 +4247,37 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -3847,21 +4289,37 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -3873,21 +4331,23 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -3910,10 +4370,8 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -3936,10 +4394,8 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -3962,10 +4418,8 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -3988,10 +4442,8 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -4014,10 +4466,8 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -4040,10 +4490,8 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -4066,10 +4514,8 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -4092,10 +4538,8 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -4118,10 +4562,8 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -4144,256 +4586,173 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8">
+    </row>
+    <row r="26" spans="1:14">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28">
         <v>1</v>
       </c>
-      <c r="H26" s="8">
-        <v>4</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="G27" s="28">
+        <v>4</v>
+      </c>
+      <c r="H27" s="28">
         <v>5</v>
       </c>
-      <c r="J26" s="8">
+      <c r="I27" s="28">
         <v>5</v>
       </c>
-      <c r="K26" s="8">
-        <v>4</v>
-      </c>
-      <c r="L26" s="8">
-        <v>4</v>
-      </c>
-      <c r="M26" s="8">
-        <v>4</v>
-      </c>
-      <c r="N26" s="8">
-        <v>4</v>
-      </c>
-      <c r="O26" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="62.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8" t="s">
+      <c r="J27" s="28">
+        <v>4</v>
+      </c>
+      <c r="K27" s="28">
+        <v>4</v>
+      </c>
+      <c r="L27" s="28">
+        <v>4</v>
+      </c>
+      <c r="M27" s="28">
+        <v>4</v>
+      </c>
+      <c r="N27" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="28">
+        <v>3</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="28">
+        <v>4</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="28">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="28"/>
+      <c r="G32" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="I32" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="28"/>
+      <c r="G33" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="s">
+      <c r="I33" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" ht="30.6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8">
-        <v>5</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" ht="45.6">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="28"/>
+      <c r="I34" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" ht="46.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="28"/>
+      <c r="I35" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8" t="s">
+    </row>
+    <row r="36" spans="3:9">
+      <c r="E36" s="28"/>
+      <c r="I36" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="1:15" ht="46.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="1:15" ht="46.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" ht="46.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4402,12 +4761,2480 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF37133B-524C-4ED4-B9F2-C1598075A7B1}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4"/>
+  <cols>
+    <col min="1" max="1" width="4.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="28"/>
+    <col min="5" max="5" width="15.796875" style="2" customWidth="1"/>
+    <col min="6" max="12" width="15.796875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="50.6640625" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="26">
+        <v>10</v>
+      </c>
+      <c r="F1" s="26">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26">
+        <v>4</v>
+      </c>
+      <c r="H1" s="26">
+        <v>2</v>
+      </c>
+      <c r="I1" s="26">
+        <v>2</v>
+      </c>
+      <c r="J1" s="26">
+        <v>3</v>
+      </c>
+      <c r="K1" s="26">
+        <v>3</v>
+      </c>
+      <c r="L1" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30.75">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="61.5">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27">
+        <f>30-SUM(E3:L3)</f>
+        <v>28</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="37" t="str">
+        <f>M$27&amp;"-"&amp;(30-D3)&amp;CHAR(10)&amp;
+IF(F3=0,"",M$28&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",M$29&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",M$30&amp;H3&amp;")"&amp;CHAR(10))&amp;
+IF(I3=0,"",M$31&amp;I3&amp;")"&amp;CHAR(10))&amp;
+IF(J3=0,"",M$32&amp;J3&amp;")"&amp;CHAR(10))&amp;
+IF(K3=0,"",M$33&amp;K3&amp;")"&amp;CHAR(10))&amp;
+IF(L3=0,"",M$34&amp;L3&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -2
+Incorrect count calculation of Independence Day(-1)
+Wrongly printing Thanksgiving Day(-1)
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="46.15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D25" si="0">30-SUM(E4:L4)</f>
+        <v>27</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>3</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37" t="str">
+        <f t="shared" ref="M4:M25" si="1">M$27&amp;"-"&amp;(30-D4)&amp;CHAR(10)&amp;
+IF(F4=0,"",M$28&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",M$29&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",M$30&amp;H4&amp;")"&amp;CHAR(10))&amp;
+IF(I4=0,"",M$31&amp;I4&amp;")"&amp;CHAR(10))&amp;
+IF(J4=0,"",M$32&amp;J4&amp;")"&amp;CHAR(10))&amp;
+IF(K4=0,"",M$33&amp;K4&amp;")"&amp;CHAR(10))&amp;
+IF(L4=0,"",M$34&amp;L4&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -3
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="46.15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -1
+Incorrect count calculation of Independence Day(-1)
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="138.4">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Wrongly printing Independence Day(-2)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="76.900000000000006">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -8
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="107.65">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="24">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -16
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="76.900000000000006">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -7
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Nov 1st(-1)
+Incorrect day of Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30.75">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -0
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="107.65">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -14
+Incorrect count calculation of Independence Day(-2)
+Incorrect weekday of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="107.65">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -16
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="92.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -12
+Incorrect count calculation of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="61.5">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -4
+Incorrect weekday of Nov 1st(-1)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="46.15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -1
+Wrongly printing Thanksgiving Day(-1)
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="76.900000000000006">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -8
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="107.65">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -16
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="138.4">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
+      <c r="M18" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Wrongly printing Independence Day(-2)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="107.65">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -14
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-1)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="92.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2</v>
+      </c>
+      <c r="M20" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -10
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="61.5">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -4
+Incorrect weekday of Independence Day(-1)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="61.5">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -5
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect day of Thanksgiving Day(-3)
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="76.900000000000006">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
+      <c r="M23" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -7
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="138.4">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2</v>
+      </c>
+      <c r="M24" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-4)
+Incorrect weekday of Independence Day(-4)
+Wrongly printing Independence Day(-2)
+Incorrect count calculation of Thanksgiving Day(-2)
+Incorrect weekday of Nov 1st(-3)
+Incorrect day of Thanksgiving Day(-3)
+Wrongly printing Thanksgiving Day(-2)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="76.900000000000006">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -6
+Incorrect weekday of Independence Day(-4)
+Incorrect weekday of Nov 1st(-1)
+Incorrect day of Thanksgiving Day(-1)
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="M27" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="M28" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="M29" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="M30" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="M31" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="M32" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" s="28" customFormat="1">
+      <c r="M33" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" s="28" customFormat="1">
+      <c r="M34" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" s="28" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H25">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I25">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+      <formula>$I$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J25">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K25">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>$K$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L25">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>$L$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAA24F-FE4E-43B1-AB50-D2B165E173D0}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.4"/>
+  <cols>
+    <col min="1" max="1" width="4.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="28"/>
+    <col min="5" max="5" width="15.796875" style="2" customWidth="1"/>
+    <col min="6" max="10" width="15.796875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="37.6640625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" style="28"/>
+    <col min="13" max="13" width="11.19921875" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8">
+        <v>4</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="30.75">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <f>35-SUM(E3:M3)</f>
+        <v>24</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <f>35-SUM(E4:M4)</f>
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f>35-SUM(E5:M5)</f>
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <f>35-SUM(E6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D25" si="0">35-SUM(E7:M7)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8</v>
+      </c>
+      <c r="G23" s="7">
+        <v>8</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7">
+        <v>8</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="1:15" ht="107.65">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H25">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I25">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$I$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4416,11 +7243,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
-    <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
-    <xsd:import namespace="63d3d360-74a6-4491-a2a1-d2af0de2cd9e"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100A76360186E9C6A41BC5B668EBF5EFF67" ma:contentTypeVersion="4" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="e7e06fa906a948f026654c01e7ab7196">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7162246-4718-49f5-9ac5-5fdc9bb78b4c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="554b8ce1b84d4cdd6066e98150279729" ns3:_="">
+    <xsd:import namespace="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4429,20 +7255,7 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -4451,7 +7264,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3317c420-d316-4435-8241-33b98cfe393f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f7162246-4718-49f5-9ac5-5fdc9bb78b4c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -4464,101 +7277,12 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="23" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="共用對象:" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="共用詳細資料" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="共用提示雜湊" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -4663,28 +7387,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
-  <ds:schemaRefs/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17844AD4-164A-40EC-B950-096ECCAE0010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7162246-4718-49f5-9ac5-5fdc9bb78b4c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Midterm/mexam_grade_Purdue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fengchia-my.sharepoint.com/personal/d1166506_o365_fcu_edu_tw/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{ADD473C9-B3BD-46C0-B35C-2AD4A5597CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFBC99D4-E430-4EE9-B23D-9A83A5D4223F}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="8_{ADD473C9-B3BD-46C0-B35C-2AD4A5597CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B4CBA26-5C1A-4EF0-AAF3-939896F90B7D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -2485,9 +2485,6 @@
   <si>
     <t>Comment</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>print Labor Day</t>
   </si>
   <si>
     <t>count of Independence day</t>
@@ -3150,17 +3147,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2" xr:uid="{F0B30814-C85D-495C-BC85-008EF7A0263B}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3380,8 +3367,8 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="0.10000000000000001" overflow="40">
-              <cx:binSize val="5"/>
+            <cx:binning intervalClosed="r" underflow="0.40000000000000002" overflow="39.600000000000001">
+              <cx:binSize val="4.9000000000000004"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -3428,8 +3415,8 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r">
-              <cx:binSize val="5"/>
+            <cx:binning intervalClosed="r" underflow="0.5" overflow="29.899999999999999">
+              <cx:binSize val="4.9000000000000004"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -3476,8 +3463,8 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="0.10000000000000001">
-              <cx:binSize val="5"/>
+            <cx:binning intervalClosed="r" underflow="0.5" overflow="29.899999999999999">
+              <cx:binSize val="4.9000000000000004"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -6275,8 +6262,8 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6363,7 +6350,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="47" t="str">
-        <f>'Question 1'!N3&amp;'Question 2'!M3&amp;'Question 3'!K3</f>
+        <f>'Question 1'!N3&amp;'Question 2'!L3&amp;'Question 3'!K3</f>
         <v xml:space="preserve">Question 1: -4
 Incorrect error exception(-2)
 Without handling leading terms(-1)
@@ -6418,7 +6405,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="47" t="str">
-        <f>'Question 1'!N4&amp;'Question 2'!M4&amp;'Question 3'!K4</f>
+        <f>'Question 1'!N4&amp;'Question 2'!L4&amp;'Question 3'!K4</f>
         <v xml:space="preserve">Question 1: -26
 Without leading blanks(-1)
 Wrongly printing terms(-2)
@@ -6481,7 +6468,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="47" t="str">
-        <f>'Question 1'!N5&amp;'Question 2'!M5&amp;'Question 3'!K5</f>
+        <f>'Question 1'!N5&amp;'Question 2'!L5&amp;'Question 3'!K5</f>
         <v xml:space="preserve">Question 1: -7
 Without leading blanks(-1)
 Incorrect error exception(-2)
@@ -6529,23 +6516,23 @@
       </c>
       <c r="G5" s="46">
         <f>'Question 2'!$D6</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" s="46">
         <f>'Question 3'!$D6</f>
         <v>0</v>
       </c>
       <c r="I5" s="47" t="str">
-        <f>'Question 1'!N6&amp;'Question 2'!M6&amp;'Question 3'!K6</f>
+        <f>'Question 1'!N6&amp;'Question 2'!L6&amp;'Question 3'!K6</f>
         <v xml:space="preserve">Question 1: great
-Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 Question 3: -35
 Wrongly printing binary(-8)
 Wrongly printing hexadecimal(-8)
@@ -6557,7 +6544,7 @@
       </c>
       <c r="J5" s="60">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K5" s="42">
         <f>OLD!J5</f>
@@ -6589,14 +6576,140 @@
       </c>
       <c r="G6" s="46">
         <f>'Question 2'!$D7</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="46">
         <f>'Question 3'!$D7</f>
         <v>2</v>
       </c>
       <c r="I6" s="47" t="str">
-        <f>'Question 1'!N7&amp;'Question 2'!M7&amp;'Question 3'!K7</f>
+        <f>'Question 1'!N7&amp;'Question 2'!L7&amp;'Question 3'!K7</f>
+        <v xml:space="preserve">Question 1: -35
+Without leading blanks(-1)
+Wrongly printing terms(-4)
+Incorrect input terms and constants(-5)
+Incorrect error exception(-5)
+Without handling zero terms(-4)
+Without handling leading terms(-4)
+Without handling 1 or -1 situation(-4)
+Wrongly printing other numbers(-4)
+Without alignments and blanks(-4)
+Question 2: -10
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
+Incorrect day of Thanksgiving Day(-3)
+Question 3: -33
+Wrongly printing binary(-8)
+Wrongly printing hexadecimal(-8)
+Incorrect calculation of reverse number(-8)
+Wrongly printing reverse decimal(-1)
+Wrongly printing reverse binary(-4)
+Wrongly printing reverse hexadecimal(-4)
+</v>
+      </c>
+      <c r="J6" s="60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K6" s="42">
+        <f>OLD!J6</f>
+        <v>25</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="274.5">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="46">
+        <f>'Question 1'!$D8</f>
+        <v>23</v>
+      </c>
+      <c r="G7" s="46">
+        <f>'Question 2'!$D8</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="46">
+        <f>'Question 3'!$D8</f>
+        <v>24</v>
+      </c>
+      <c r="I7" s="47" t="str">
+        <f>'Question 1'!N8&amp;'Question 2'!L8&amp;'Question 3'!K8</f>
+        <v xml:space="preserve">Question 1: -12
+Wrongly printing terms(-1)
+Incorrect error exception(-3)
+Without handling leading terms(-3)
+Without handling 1 or -1 situation(-3)
+Wrongly printing other numbers(-2)
+Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
+Incorrect day of Thanksgiving Day(-3)
+Question 3: -11
+Wrongly printing hexadecimal(-2)
+Incorrect calculation of reverse number(-4)
+Wrongly printing reverse decimal(-3)
+Wrongly printing reverse hexadecimal(-2)
+</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K7" s="42">
+        <f>OLD!J7</f>
+        <v>32</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="336">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="46">
+        <f>'Question 1'!$D9</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="46">
+        <f>'Question 2'!$D9</f>
+        <v>22</v>
+      </c>
+      <c r="H8" s="46">
+        <f>'Question 3'!$D9</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="47" t="str">
+        <f>'Question 1'!N9&amp;'Question 2'!L9&amp;'Question 3'!K9</f>
         <v xml:space="preserve">Question 1: -35
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -6608,133 +6721,7 @@
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
 Question 2: -8
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
-Incorrect day of Thanksgiving Day(-3)
-Question 3: -33
-Wrongly printing binary(-8)
-Wrongly printing hexadecimal(-8)
-Incorrect calculation of reverse number(-8)
-Wrongly printing reverse decimal(-1)
-Wrongly printing reverse binary(-4)
-Wrongly printing reverse hexadecimal(-4)
-</v>
-      </c>
-      <c r="J6" s="60">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K6" s="42">
-        <f>OLD!J6</f>
-        <v>25</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="274.5">
-      <c r="A7" s="59">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="46">
-        <f>'Question 1'!$D8</f>
-        <v>23</v>
-      </c>
-      <c r="G7" s="46">
-        <f>'Question 2'!$D8</f>
-        <v>14</v>
-      </c>
-      <c r="H7" s="46">
-        <f>'Question 3'!$D8</f>
-        <v>24</v>
-      </c>
-      <c r="I7" s="47" t="str">
-        <f>'Question 1'!N8&amp;'Question 2'!M8&amp;'Question 3'!K8</f>
-        <v xml:space="preserve">Question 1: -12
-Wrongly printing terms(-1)
-Incorrect error exception(-3)
-Without handling leading terms(-3)
-Without handling 1 or -1 situation(-3)
-Wrongly printing other numbers(-2)
-Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
-Incorrect day of Thanksgiving Day(-3)
-Question 3: -11
-Wrongly printing hexadecimal(-2)
-Incorrect calculation of reverse number(-4)
-Wrongly printing reverse decimal(-3)
-Wrongly printing reverse hexadecimal(-2)
-</v>
-      </c>
-      <c r="J7" s="60">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="K7" s="42">
-        <f>OLD!J7</f>
-        <v>32</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="336">
-      <c r="A8" s="59">
-        <v>7</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="46">
-        <f>'Question 1'!$D9</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="46">
-        <f>'Question 2'!$D9</f>
-        <v>23</v>
-      </c>
-      <c r="H8" s="46">
-        <f>'Question 3'!$D9</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="47" t="str">
-        <f>'Question 1'!N9&amp;'Question 2'!M9&amp;'Question 3'!K9</f>
-        <v xml:space="preserve">Question 1: -35
-Without leading blanks(-1)
-Wrongly printing terms(-4)
-Incorrect input terms and constants(-5)
-Incorrect error exception(-5)
-Without handling zero terms(-4)
-Without handling leading terms(-4)
-Without handling 1 or -1 situation(-4)
-Wrongly printing other numbers(-4)
-Without alignments and blanks(-4)
-Question 2: -7
-Incorrect count calculation of Independence Day(-4)
+Incorrect count calculation of Independence Day(-5)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-2)
 Question 3: -35
@@ -6748,7 +6735,7 @@
       </c>
       <c r="J8" s="60">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="42">
         <f>OLD!J8</f>
@@ -6787,7 +6774,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="47" t="str">
-        <f>'Question 1'!N10&amp;'Question 2'!M10&amp;'Question 3'!K10</f>
+        <f>'Question 1'!N10&amp;'Question 2'!L10&amp;'Question 3'!K10</f>
         <v xml:space="preserve">Question 1: -35
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -6839,24 +6826,24 @@
       </c>
       <c r="G10" s="46">
         <f>'Question 2'!$D11</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="46">
         <f>'Question 3'!$D11</f>
         <v>10</v>
       </c>
       <c r="I10" s="47" t="str">
-        <f>'Question 1'!N11&amp;'Question 2'!M11&amp;'Question 3'!K11</f>
+        <f>'Question 1'!N11&amp;'Question 2'!L11&amp;'Question 3'!K11</f>
         <v xml:space="preserve">Question 1: -12
 Without leading blanks(-1)
 Incorrect error exception(-5)
 Without handling leading terms(-4)
 Without alignments and blanks(-2)
-Question 2: -14
+Question 2: -17
 Incorrect count calculation of Independence Day(-2)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -25
 Wrongly printing hexadecimal(-6)
@@ -6868,7 +6855,7 @@
       </c>
       <c r="J10" s="60">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10" s="42">
         <f>OLD!J10</f>
@@ -6900,14 +6887,14 @@
       </c>
       <c r="G11" s="46">
         <f>'Question 2'!$D12</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" s="46">
         <f>'Question 3'!$D12</f>
         <v>10</v>
       </c>
       <c r="I11" s="47" t="str">
-        <f>'Question 1'!N12&amp;'Question 2'!M12&amp;'Question 3'!K12</f>
+        <f>'Question 1'!N12&amp;'Question 2'!L12&amp;'Question 3'!K12</f>
         <v xml:space="preserve">Question 1: -23
 Without leading blanks(-1)
 Wrongly printing terms(-3)
@@ -6916,11 +6903,11 @@
 Without handling leading terms(-4)
 Without handling 1 or -1 situation(-4)
 Without alignments and blanks(-2)
-Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -25
 Wrongly printing binary(-4)
@@ -6933,7 +6920,7 @@
       </c>
       <c r="J11" s="60">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11" s="42">
         <f>OLD!J11</f>
@@ -6965,22 +6952,22 @@
       </c>
       <c r="G12" s="46">
         <f>'Question 2'!$D13</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H12" s="46">
         <f>'Question 3'!$D13</f>
         <v>12</v>
       </c>
       <c r="I12" s="47" t="str">
-        <f>'Question 1'!N13&amp;'Question 2'!M13&amp;'Question 3'!K13</f>
+        <f>'Question 1'!N13&amp;'Question 2'!L13&amp;'Question 3'!K13</f>
         <v xml:space="preserve">Question 1: -10
 Incorrect error exception(-5)
 Without handling zero terms(-3)
 Without alignments and blanks(-2)
-Question 2: -12
-Incorrect count calculation of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -15
+Incorrect count calculation of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -23
 Wrongly printing binary(-2)
@@ -6993,7 +6980,7 @@
       </c>
       <c r="J12" s="60">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K12" s="42">
         <f>OLD!J12</f>
@@ -7032,7 +7019,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="47" t="str">
-        <f>'Question 1'!N14&amp;'Question 2'!M14&amp;'Question 3'!K14</f>
+        <f>'Question 1'!N14&amp;'Question 2'!L14&amp;'Question 3'!K14</f>
         <v xml:space="preserve">Question 1: -20
 Without leading blanks(-1)
 Incorrect error exception(-5)
@@ -7090,7 +7077,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="47" t="str">
-        <f>'Question 1'!N15&amp;'Question 2'!M15&amp;'Question 3'!K15</f>
+        <f>'Question 1'!N15&amp;'Question 2'!L15&amp;'Question 3'!K15</f>
         <v xml:space="preserve">Question 1: -31
 Without leading blanks(-1)
 Wrongly printing terms(-3)
@@ -7142,14 +7129,14 @@
       </c>
       <c r="G15" s="46">
         <f>'Question 2'!$D16</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="46">
         <f>'Question 3'!$D16</f>
         <v>6</v>
       </c>
       <c r="I15" s="47" t="str">
-        <f>'Question 1'!N16&amp;'Question 2'!M16&amp;'Question 3'!K16</f>
+        <f>'Question 1'!N16&amp;'Question 2'!L16&amp;'Question 3'!K16</f>
         <v xml:space="preserve">Question 1: -32
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -7160,9 +7147,9 @@
 Without handling 1 or -1 situation(-4)
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
-Question 2: -8
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -10
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -29
 Wrongly printing binary(-2)
@@ -7175,7 +7162,7 @@
       </c>
       <c r="J15" s="60">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" s="42">
         <f>OLD!J15</f>
@@ -7207,24 +7194,24 @@
       </c>
       <c r="G16" s="46">
         <f>'Question 2'!$D17</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H16" s="46">
         <f>'Question 3'!$D17</f>
         <v>6</v>
       </c>
       <c r="I16" s="47" t="str">
-        <f>'Question 1'!N17&amp;'Question 2'!M17&amp;'Question 3'!K17</f>
+        <f>'Question 1'!N17&amp;'Question 2'!L17&amp;'Question 3'!K17</f>
         <v xml:space="preserve">Question 1: -11
 Wrongly printing terms(-1)
 Incorrect error exception(-4)
 Without handling leading terms(-4)
 Without alignments and blanks(-2)
-Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -29
 Wrongly printing binary(-2)
@@ -7237,7 +7224,7 @@
       </c>
       <c r="J16" s="60">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K16" s="42">
         <f>OLD!J16</f>
@@ -7269,14 +7256,14 @@
       </c>
       <c r="G17" s="46">
         <f>'Question 2'!$D18</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" s="46">
         <f>'Question 3'!$D18</f>
         <v>2</v>
       </c>
       <c r="I17" s="47" t="str">
-        <f>'Question 1'!N18&amp;'Question 2'!M18&amp;'Question 3'!K18</f>
+        <f>'Question 1'!N18&amp;'Question 2'!L18&amp;'Question 3'!K18</f>
         <v xml:space="preserve">Question 1: -35
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -7287,14 +7274,14 @@
 Without handling 1 or -1 situation(-4)
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
-Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 Question 3: -33
 Wrongly printing binary(-6)
 Wrongly printing hexadecimal(-6)
@@ -7306,7 +7293,7 @@
       </c>
       <c r="J17" s="60">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K17" s="42">
         <f>OLD!J17</f>
@@ -7338,14 +7325,14 @@
       </c>
       <c r="G18" s="46">
         <f>'Question 2'!$D19</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="46">
         <f>'Question 3'!$D19</f>
         <v>10</v>
       </c>
       <c r="I18" s="47" t="str">
-        <f>'Question 1'!N19&amp;'Question 2'!M19&amp;'Question 3'!K19</f>
+        <f>'Question 1'!N19&amp;'Question 2'!L19&amp;'Question 3'!K19</f>
         <v xml:space="preserve">Question 1: -27
 Without leading blanks(-1)
 Incorrect input terms and constants(-5)
@@ -7354,10 +7341,10 @@
 Without handling leading terms(-4)
 Without handling 1 or -1 situation(-4)
 Without alignments and blanks(-4)
-Question 2: -14
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
+Question 2: -17
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -25
@@ -7370,7 +7357,7 @@
       </c>
       <c r="J18" s="60">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18" s="42">
         <f>OLD!J18</f>
@@ -7402,14 +7389,14 @@
       </c>
       <c r="G19" s="46">
         <f>'Question 2'!$D20</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" s="46">
         <f>'Question 3'!$D20</f>
         <v>2</v>
       </c>
       <c r="I19" s="47" t="str">
-        <f>'Question 1'!N20&amp;'Question 2'!M20&amp;'Question 3'!K20</f>
+        <f>'Question 1'!N20&amp;'Question 2'!L20&amp;'Question 3'!K20</f>
         <v xml:space="preserve">Question 1: -34
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -7420,11 +7407,11 @@
 Without handling 1 or -1 situation(-3)
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
-Question 2: -10
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -15
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 Question 3: -33
 Wrongly printing binary(-6)
 Wrongly printing hexadecimal(-6)
@@ -7436,7 +7423,7 @@
       </c>
       <c r="J19" s="60">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K19" s="42">
         <f>OLD!J19</f>
@@ -7475,7 +7462,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="47" t="str">
-        <f>'Question 1'!N21&amp;'Question 2'!M21&amp;'Question 3'!K21</f>
+        <f>'Question 1'!N21&amp;'Question 2'!L21&amp;'Question 3'!K21</f>
         <v xml:space="preserve">Question 1: -35
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -7531,18 +7518,18 @@
       </c>
       <c r="G21" s="46">
         <f>'Question 2'!$D22</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="46">
         <f>'Question 3'!$D22</f>
         <v>12</v>
       </c>
       <c r="I21" s="47" t="str">
-        <f>'Question 1'!N22&amp;'Question 2'!M22&amp;'Question 3'!K22</f>
+        <f>'Question 1'!N22&amp;'Question 2'!L22&amp;'Question 3'!K22</f>
         <v xml:space="preserve">Question 1: -2
 Incorrect error exception(-2)
-Question 2: -5
-Incorrect count calculation of Thanksgiving Day(-2)
+Question 2: -6
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect day of Thanksgiving Day(-3)
 Question 3: -23
 Wrongly printing hexadecimal(-8)
@@ -7553,7 +7540,7 @@
       </c>
       <c r="J21" s="60">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K21" s="42">
         <f>OLD!J21</f>
@@ -7585,23 +7572,23 @@
       </c>
       <c r="G22" s="46">
         <f>'Question 2'!$D23</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H22" s="46">
         <f>'Question 3'!$D23</f>
         <v>4</v>
       </c>
       <c r="I22" s="47" t="str">
-        <f>'Question 1'!N23&amp;'Question 2'!M23&amp;'Question 3'!K23</f>
+        <f>'Question 1'!N23&amp;'Question 2'!L23&amp;'Question 3'!K23</f>
         <v xml:space="preserve">Question 1: -10
 Wrongly printing terms(-1)
 Incorrect error exception(-1)
 Without handling leading terms(-4)
 Without alignments and blanks(-4)
-Question 2: -7
-Incorrect count calculation of Thanksgiving Day(-2)
+Question 2: -11
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 Question 3: -31
 Wrongly printing binary(-8)
 Wrongly printing hexadecimal(-8)
@@ -7613,7 +7600,7 @@
       </c>
       <c r="J22" s="60">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K22" s="42">
         <f>OLD!J22</f>
@@ -7645,14 +7632,14 @@
       </c>
       <c r="G23" s="46">
         <f>'Question 2'!$D24</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="46">
         <f>'Question 3'!$D24</f>
         <v>0</v>
       </c>
       <c r="I23" s="47" t="str">
-        <f>'Question 1'!N24&amp;'Question 2'!M24&amp;'Question 3'!K24</f>
+        <f>'Question 1'!N24&amp;'Question 2'!L24&amp;'Question 3'!K24</f>
         <v xml:space="preserve">Question 1: -35
 Without leading blanks(-1)
 Wrongly printing terms(-4)
@@ -7663,14 +7650,14 @@
 Without handling 1 or -1 situation(-4)
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
-Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 Question 3: -35
 Wrongly printing binary(-8)
 Wrongly printing hexadecimal(-8)
@@ -7682,7 +7669,7 @@
       </c>
       <c r="J23" s="60">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K23" s="42">
         <f>OLD!J23</f>
@@ -7714,14 +7701,14 @@
       </c>
       <c r="G24" s="65">
         <f>'Question 2'!$D25</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="65">
         <f>'Question 3'!$D25</f>
         <v>0</v>
       </c>
       <c r="I24" s="66" t="str">
-        <f>'Question 1'!N25&amp;'Question 2'!M25&amp;'Question 3'!K25</f>
+        <f>'Question 1'!N25&amp;'Question 2'!L25&amp;'Question 3'!K25</f>
         <v xml:space="preserve">Question 1: -33
 Wrongly printing terms(-3)
 Incorrect input terms and constants(-5)
@@ -7731,8 +7718,8 @@
 Without handling 1 or -1 situation(-4)
 Wrongly printing other numbers(-4)
 Without alignments and blanks(-4)
-Question 2: -6
-Incorrect weekday of Independence Day(-4)
+Question 2: -7
+Incorrect weekday of Independence Day(-5)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-1)
 Question 3: -35
@@ -7746,7 +7733,7 @@
       </c>
       <c r="J24" s="67">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="42">
         <f>OLD!J24</f>
@@ -7766,7 +7753,7 @@
       <c r="E25" s="68"/>
       <c r="J25" s="5">
         <f>AVERAGE(J2:J24)</f>
-        <v>44.434782608695649</v>
+        <v>41.521739130434781</v>
       </c>
       <c r="K25" s="5">
         <f>AVERAGE(K2:K24)</f>
@@ -7776,7 +7763,7 @@
     <row r="26" spans="1:12">
       <c r="J26" s="5">
         <f>MEDIAN(J2:J24)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L26" s="19"/>
     </row>
@@ -10161,25 +10148,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF37133B-524C-4ED4-B9F2-C1598075A7B1}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="17"/>
-    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
-    <col min="6" max="12" width="15.75" style="17" customWidth="1"/>
-    <col min="13" max="13" width="50.625" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="17"/>
+    <col min="5" max="11" width="15.75" style="17" customWidth="1"/>
+    <col min="12" max="12" width="50.625" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
@@ -10193,34 +10180,31 @@
         <v>177</v>
       </c>
       <c r="E1" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1" s="15">
         <v>3</v>
       </c>
       <c r="K1" s="15">
-        <v>3</v>
-      </c>
-      <c r="L1" s="15">
-        <v>2</v>
-      </c>
-      <c r="M1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75">
+    <row r="2" spans="1:12" ht="30.75">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -10246,12 +10230,9 @@
       <c r="K2" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" s="74"/>
-    </row>
-    <row r="3" spans="1:13" ht="61.5">
+      <c r="L2" s="74"/>
+    </row>
+    <row r="3" spans="1:12" ht="61.5">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -10262,49 +10243,46 @@
         <v>14</v>
       </c>
       <c r="D3" s="16">
-        <f>30-SUM(E3:L3)</f>
+        <f>30-SUM(E3:K3)</f>
         <v>28</v>
       </c>
       <c r="E3" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20" t="str">
-        <f>M$27&amp;IF(30-D3=0, "great","-"&amp;(30-D3))&amp;CHAR(10)&amp;
-IF(F3=0,"",M$28&amp;F3&amp;")"&amp;CHAR(10))&amp;
-IF(G3=0,"",M$29&amp;G3&amp;")"&amp;CHAR(10))&amp;
-IF(H3=0,"",M$30&amp;H3&amp;")"&amp;CHAR(10))&amp;
-IF(I3=0,"",M$31&amp;I3&amp;")"&amp;CHAR(10))&amp;
-IF(J3=0,"",M$32&amp;J3&amp;")"&amp;CHAR(10))&amp;
-IF(K3=0,"",M$33&amp;K3&amp;")"&amp;CHAR(10))&amp;
-IF(L3=0,"",M$34&amp;L3&amp;")"&amp;CHAR(10))</f>
+      <c r="L3" s="20" t="str">
+        <f>L$27&amp;IF(30-D3=0, "great","-"&amp;(30-D3))&amp;CHAR(10)&amp;
+IF(E3=0,"",L$28&amp;E3&amp;")"&amp;CHAR(10))&amp;
+IF(F3=0,"",L$29&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",L$30&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",L$31&amp;H3&amp;")"&amp;CHAR(10))&amp;
+IF(I3=0,"",L$32&amp;I3&amp;")"&amp;CHAR(10))&amp;
+IF(J3=0,"",L$33&amp;J3&amp;")"&amp;CHAR(10))&amp;
+IF(K3=0,"",L$34&amp;K3&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -2
 Incorrect count calculation of Independence Day(-1)
 Wrongly printing Thanksgiving Day(-1)
 </v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="46.15">
+    <row r="4" spans="1:12" ht="45.75">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -10315,7 +10293,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D25" si="0">30-SUM(E4:L4)</f>
+        <f>30-SUM(E4:K4)</f>
         <v>27</v>
       </c>
       <c r="E4" s="16">
@@ -10334,29 +10312,26 @@
         <v>0</v>
       </c>
       <c r="J4" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="16">
-        <v>3</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20" t="str">
-        <f t="shared" ref="M4:M9" si="1">M$27&amp;IF(30-D4=0, "great","-"&amp;(30-D4))&amp;CHAR(10)&amp;
-IF(F4=0,"",M$28&amp;F4&amp;")"&amp;CHAR(10))&amp;
-IF(G4=0,"",M$29&amp;G4&amp;")"&amp;CHAR(10))&amp;
-IF(H4=0,"",M$30&amp;H4&amp;")"&amp;CHAR(10))&amp;
-IF(I4=0,"",M$31&amp;I4&amp;")"&amp;CHAR(10))&amp;
-IF(J4=0,"",M$32&amp;J4&amp;")"&amp;CHAR(10))&amp;
-IF(K4=0,"",M$33&amp;K4&amp;")"&amp;CHAR(10))&amp;
-IF(L4=0,"",M$34&amp;L4&amp;")"&amp;CHAR(10))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="20" t="str">
+        <f>L$27&amp;IF(30-D4=0, "great","-"&amp;(30-D4))&amp;CHAR(10)&amp;
+IF(E4=0,"",L$28&amp;E4&amp;")"&amp;CHAR(10))&amp;
+IF(F4=0,"",L$29&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",L$30&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",L$31&amp;H4&amp;")"&amp;CHAR(10))&amp;
+IF(I4=0,"",L$32&amp;I4&amp;")"&amp;CHAR(10))&amp;
+IF(J4=0,"",L$33&amp;J4&amp;")"&amp;CHAR(10))&amp;
+IF(K4=0,"",L$34&amp;K4&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -3
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="46.15">
+    <row r="5" spans="1:12" ht="45.75">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -10367,15 +10342,15 @@
         <v>24</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
+        <f>30-SUM(E5:K5)</f>
         <v>29</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
         <v>1</v>
       </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
@@ -10391,17 +10366,21 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="L5" s="20" t="str">
+        <f>L$27&amp;IF(30-D5=0, "great","-"&amp;(30-D5))&amp;CHAR(10)&amp;
+IF(E5=0,"",L$28&amp;E5&amp;")"&amp;CHAR(10))&amp;
+IF(F5=0,"",L$29&amp;F5&amp;")"&amp;CHAR(10))&amp;
+IF(G5=0,"",L$30&amp;G5&amp;")"&amp;CHAR(10))&amp;
+IF(H5=0,"",L$31&amp;H5&amp;")"&amp;CHAR(10))&amp;
+IF(I5=0,"",L$32&amp;I5&amp;")"&amp;CHAR(10))&amp;
+IF(J5=0,"",L$33&amp;J5&amp;")"&amp;CHAR(10))&amp;
+IF(K5=0,"",L$34&amp;K5&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -1
 Incorrect count calculation of Independence Day(-1)
 </v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="138.4">
+    <row r="6" spans="1:12" ht="137.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -10412,47 +10391,51 @@
         <v>29</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>30-SUM(E6:K6)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>5</v>
+      </c>
+      <c r="L6" s="20" t="str">
+        <f>L$27&amp;IF(30-D6=0, "great","-"&amp;(30-D6))&amp;CHAR(10)&amp;
+IF(E6=0,"",L$28&amp;E6&amp;")"&amp;CHAR(10))&amp;
+IF(F6=0,"",L$29&amp;F6&amp;")"&amp;CHAR(10))&amp;
+IF(G6=0,"",L$30&amp;G6&amp;")"&amp;CHAR(10))&amp;
+IF(H6=0,"",L$31&amp;H6&amp;")"&amp;CHAR(10))&amp;
+IF(I6=0,"",L$32&amp;I6&amp;")"&amp;CHAR(10))&amp;
+IF(J6=0,"",L$33&amp;J6&amp;")"&amp;CHAR(10))&amp;
+IF(K6=0,"",L$34&amp;K6&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 </v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="76.900000000000006">
+    <row r="7" spans="1:12" ht="76.5">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -10463,43 +10446,47 @@
         <v>34</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>30-SUM(E7:K7)</f>
+        <v>20</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="7">
         <v>3</v>
       </c>
       <c r="K7" s="7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Question 2: -8
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="str">
+        <f>L$27&amp;IF(30-D7=0, "great","-"&amp;(30-D7))&amp;CHAR(10)&amp;
+IF(E7=0,"",L$28&amp;E7&amp;")"&amp;CHAR(10))&amp;
+IF(F7=0,"",L$29&amp;F7&amp;")"&amp;CHAR(10))&amp;
+IF(G7=0,"",L$30&amp;G7&amp;")"&amp;CHAR(10))&amp;
+IF(H7=0,"",L$31&amp;H7&amp;")"&amp;CHAR(10))&amp;
+IF(I7=0,"",L$32&amp;I7&amp;")"&amp;CHAR(10))&amp;
+IF(J7=0,"",L$33&amp;J7&amp;")"&amp;CHAR(10))&amp;
+IF(K7=0,"",L$34&amp;K7&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -10
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="107.65">
+    <row r="8" spans="1:12" ht="107.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -10510,45 +10497,49 @@
         <v>39</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>30-SUM(E8:K8)</f>
+        <v>10</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
       </c>
       <c r="G8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
         <v>3</v>
       </c>
-      <c r="K8" s="13">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="str">
+        <f>L$27&amp;IF(30-D8=0, "great","-"&amp;(30-D8))&amp;CHAR(10)&amp;
+IF(E8=0,"",L$28&amp;E8&amp;")"&amp;CHAR(10))&amp;
+IF(F8=0,"",L$29&amp;F8&amp;")"&amp;CHAR(10))&amp;
+IF(G8=0,"",L$30&amp;G8&amp;")"&amp;CHAR(10))&amp;
+IF(H8=0,"",L$31&amp;H8&amp;")"&amp;CHAR(10))&amp;
+IF(I8=0,"",L$32&amp;I8&amp;")"&amp;CHAR(10))&amp;
+IF(J8=0,"",L$33&amp;J8&amp;")"&amp;CHAR(10))&amp;
+IF(K8=0,"",L$34&amp;K8&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="76.900000000000006">
+    <row r="9" spans="1:12" ht="76.5">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -10559,14 +10550,14 @@
         <v>44</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>30-SUM(E9:K9)</f>
+        <v>22</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -10575,27 +10566,31 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="13">
+      <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Question 2: -7
-Incorrect count calculation of Independence Day(-4)
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="str">
+        <f>L$27&amp;IF(30-D9=0, "great","-"&amp;(30-D9))&amp;CHAR(10)&amp;
+IF(E9=0,"",L$28&amp;E9&amp;")"&amp;CHAR(10))&amp;
+IF(F9=0,"",L$29&amp;F9&amp;")"&amp;CHAR(10))&amp;
+IF(G9=0,"",L$30&amp;G9&amp;")"&amp;CHAR(10))&amp;
+IF(H9=0,"",L$31&amp;H9&amp;")"&amp;CHAR(10))&amp;
+IF(I9=0,"",L$32&amp;I9&amp;")"&amp;CHAR(10))&amp;
+IF(J9=0,"",L$33&amp;J9&amp;")"&amp;CHAR(10))&amp;
+IF(K9=0,"",L$34&amp;K9&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -8
+Incorrect count calculation of Independence Day(-5)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-2)
 </v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.75">
+    <row r="10" spans="1:12" ht="30.75">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -10606,13 +10601,13 @@
         <v>49</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="0"/>
+        <f>30-SUM(E10:K10)</f>
         <v>30</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="7">
@@ -10624,29 +10619,26 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20" t="str">
-        <f>M$27&amp;IF(30-D10=0, "great","-"&amp;(30-D10))&amp;CHAR(10)&amp;
-IF(F10=0,"",M$28&amp;F10&amp;")"&amp;CHAR(10))&amp;
-IF(G10=0,"",M$29&amp;G10&amp;")"&amp;CHAR(10))&amp;
-IF(H10=0,"",M$30&amp;H10&amp;")"&amp;CHAR(10))&amp;
-IF(I10=0,"",M$31&amp;I10&amp;")"&amp;CHAR(10))&amp;
-IF(J10=0,"",M$32&amp;J10&amp;")"&amp;CHAR(10))&amp;
-IF(K10=0,"",M$33&amp;K10&amp;")"&amp;CHAR(10))&amp;
-IF(L10=0,"",M$34&amp;L10&amp;")"&amp;CHAR(10))</f>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="str">
+        <f>L$27&amp;IF(30-D10=0, "great","-"&amp;(30-D10))&amp;CHAR(10)&amp;
+IF(E10=0,"",L$28&amp;E10&amp;")"&amp;CHAR(10))&amp;
+IF(F10=0,"",L$29&amp;F10&amp;")"&amp;CHAR(10))&amp;
+IF(G10=0,"",L$30&amp;G10&amp;")"&amp;CHAR(10))&amp;
+IF(H10=0,"",L$31&amp;H10&amp;")"&amp;CHAR(10))&amp;
+IF(I10=0,"",L$32&amp;I10&amp;")"&amp;CHAR(10))&amp;
+IF(J10=0,"",L$33&amp;J10&amp;")"&amp;CHAR(10))&amp;
+IF(K10=0,"",L$34&amp;K10&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: great
 </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="107.65">
+    <row r="11" spans="1:12" ht="107.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -10657,52 +10649,49 @@
         <v>54</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>30-SUM(E11:K11)</f>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="6">
         <v>3</v>
       </c>
       <c r="K11" s="6">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20" t="str">
-        <f t="shared" ref="M11:M25" si="2">M$27&amp;IF(30-D11=0, "great","-"&amp;(30-D11))&amp;CHAR(10)&amp;
-IF(F11=0,"",M$28&amp;F11&amp;")"&amp;CHAR(10))&amp;
-IF(G11=0,"",M$29&amp;G11&amp;")"&amp;CHAR(10))&amp;
-IF(H11=0,"",M$30&amp;H11&amp;")"&amp;CHAR(10))&amp;
-IF(I11=0,"",M$31&amp;I11&amp;")"&amp;CHAR(10))&amp;
-IF(J11=0,"",M$32&amp;J11&amp;")"&amp;CHAR(10))&amp;
-IF(K11=0,"",M$33&amp;K11&amp;")"&amp;CHAR(10))&amp;
-IF(L11=0,"",M$34&amp;L11&amp;")"&amp;CHAR(10))</f>
-        <v xml:space="preserve">Question 2: -14
+        <v>0</v>
+      </c>
+      <c r="L11" s="20" t="str">
+        <f>L$27&amp;IF(30-D11=0, "great","-"&amp;(30-D11))&amp;CHAR(10)&amp;
+IF(E11=0,"",L$28&amp;E11&amp;")"&amp;CHAR(10))&amp;
+IF(F11=0,"",L$29&amp;F11&amp;")"&amp;CHAR(10))&amp;
+IF(G11=0,"",L$30&amp;G11&amp;")"&amp;CHAR(10))&amp;
+IF(H11=0,"",L$31&amp;H11&amp;")"&amp;CHAR(10))&amp;
+IF(I11=0,"",L$32&amp;I11&amp;")"&amp;CHAR(10))&amp;
+IF(J11=0,"",L$33&amp;J11&amp;")"&amp;CHAR(10))&amp;
+IF(K11=0,"",L$34&amp;K11&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -17
 Incorrect count calculation of Independence Day(-2)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="107.65">
+    <row r="12" spans="1:12" ht="107.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -10713,45 +10702,49 @@
         <v>59</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>30-SUM(E12:K12)</f>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="6">
         <v>3</v>
       </c>
       <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f>L$27&amp;IF(30-D12=0, "great","-"&amp;(30-D12))&amp;CHAR(10)&amp;
+IF(E12=0,"",L$28&amp;E12&amp;")"&amp;CHAR(10))&amp;
+IF(F12=0,"",L$29&amp;F12&amp;")"&amp;CHAR(10))&amp;
+IF(G12=0,"",L$30&amp;G12&amp;")"&amp;CHAR(10))&amp;
+IF(H12=0,"",L$31&amp;H12&amp;")"&amp;CHAR(10))&amp;
+IF(I12=0,"",L$32&amp;I12&amp;")"&amp;CHAR(10))&amp;
+IF(J12=0,"",L$33&amp;J12&amp;")"&amp;CHAR(10))&amp;
+IF(K12=0,"",L$34&amp;K12&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="92.25">
+    <row r="13" spans="1:12" ht="91.5">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -10762,44 +10755,48 @@
         <v>64</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>30-SUM(E13:K13)</f>
+        <v>15</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
       </c>
       <c r="K13" s="6">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -12
-Incorrect count calculation of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="str">
+        <f>L$27&amp;IF(30-D13=0, "great","-"&amp;(30-D13))&amp;CHAR(10)&amp;
+IF(E13=0,"",L$28&amp;E13&amp;")"&amp;CHAR(10))&amp;
+IF(F13=0,"",L$29&amp;F13&amp;")"&amp;CHAR(10))&amp;
+IF(G13=0,"",L$30&amp;G13&amp;")"&amp;CHAR(10))&amp;
+IF(H13=0,"",L$31&amp;H13&amp;")"&amp;CHAR(10))&amp;
+IF(I13=0,"",L$32&amp;I13&amp;")"&amp;CHAR(10))&amp;
+IF(J13=0,"",L$33&amp;J13&amp;")"&amp;CHAR(10))&amp;
+IF(K13=0,"",L$34&amp;K13&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -15
+Incorrect count calculation of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="61.5">
+    <row r="14" spans="1:12" ht="61.5">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -10810,7 +10807,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="0"/>
+        <f>30-SUM(E14:K14)</f>
         <v>26</v>
       </c>
       <c r="E14" s="6">
@@ -10826,26 +10823,30 @@
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20" t="str">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="str">
+        <f>L$27&amp;IF(30-D14=0, "great","-"&amp;(30-D14))&amp;CHAR(10)&amp;
+IF(E14=0,"",L$28&amp;E14&amp;")"&amp;CHAR(10))&amp;
+IF(F14=0,"",L$29&amp;F14&amp;")"&amp;CHAR(10))&amp;
+IF(G14=0,"",L$30&amp;G14&amp;")"&amp;CHAR(10))&amp;
+IF(H14=0,"",L$31&amp;H14&amp;")"&amp;CHAR(10))&amp;
+IF(I14=0,"",L$32&amp;I14&amp;")"&amp;CHAR(10))&amp;
+IF(J14=0,"",L$33&amp;J14&amp;")"&amp;CHAR(10))&amp;
+IF(K14=0,"",L$34&amp;K14&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -4
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="46.15">
+    <row r="15" spans="1:12" ht="45.75">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -10856,7 +10857,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="0"/>
+        <f>30-SUM(E15:K15)</f>
         <v>29</v>
       </c>
       <c r="E15" s="6">
@@ -10878,19 +10879,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="M15" s="20" t="str">
-        <f t="shared" si="2"/>
+      <c r="L15" s="20" t="str">
+        <f>L$27&amp;IF(30-D15=0, "great","-"&amp;(30-D15))&amp;CHAR(10)&amp;
+IF(E15=0,"",L$28&amp;E15&amp;")"&amp;CHAR(10))&amp;
+IF(F15=0,"",L$29&amp;F15&amp;")"&amp;CHAR(10))&amp;
+IF(G15=0,"",L$30&amp;G15&amp;")"&amp;CHAR(10))&amp;
+IF(H15=0,"",L$31&amp;H15&amp;")"&amp;CHAR(10))&amp;
+IF(I15=0,"",L$32&amp;I15&amp;")"&amp;CHAR(10))&amp;
+IF(J15=0,"",L$33&amp;J15&amp;")"&amp;CHAR(10))&amp;
+IF(K15=0,"",L$34&amp;K15&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -1
 Wrongly printing Thanksgiving Day(-1)
 </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="76.900000000000006">
+    <row r="16" spans="1:12" ht="76.5">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -10901,8 +10906,8 @@
         <v>79</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>30-SUM(E16:K16)</f>
+        <v>20</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -10914,30 +10919,34 @@
         <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6">
         <v>3</v>
       </c>
       <c r="K16" s="6">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -8
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>0</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f>L$27&amp;IF(30-D16=0, "great","-"&amp;(30-D16))&amp;CHAR(10)&amp;
+IF(E16=0,"",L$28&amp;E16&amp;")"&amp;CHAR(10))&amp;
+IF(F16=0,"",L$29&amp;F16&amp;")"&amp;CHAR(10))&amp;
+IF(G16=0,"",L$30&amp;G16&amp;")"&amp;CHAR(10))&amp;
+IF(H16=0,"",L$31&amp;H16&amp;")"&amp;CHAR(10))&amp;
+IF(I16=0,"",L$32&amp;I16&amp;")"&amp;CHAR(10))&amp;
+IF(J16=0,"",L$33&amp;J16&amp;")"&amp;CHAR(10))&amp;
+IF(K16=0,"",L$34&amp;K16&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -10
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="107.65">
+    <row r="17" spans="1:13" ht="107.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -10948,45 +10957,49 @@
         <v>84</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>30-SUM(E17:K17)</f>
+        <v>10</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="6">
         <v>3</v>
       </c>
       <c r="K17" s="6">
-        <v>3</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -16
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>0</v>
+      </c>
+      <c r="L17" s="20" t="str">
+        <f>L$27&amp;IF(30-D17=0, "great","-"&amp;(30-D17))&amp;CHAR(10)&amp;
+IF(E17=0,"",L$28&amp;E17&amp;")"&amp;CHAR(10))&amp;
+IF(F17=0,"",L$29&amp;F17&amp;")"&amp;CHAR(10))&amp;
+IF(G17=0,"",L$30&amp;G17&amp;")"&amp;CHAR(10))&amp;
+IF(H17=0,"",L$31&amp;H17&amp;")"&amp;CHAR(10))&amp;
+IF(I17=0,"",L$32&amp;I17&amp;")"&amp;CHAR(10))&amp;
+IF(J17=0,"",L$33&amp;J17&amp;")"&amp;CHAR(10))&amp;
+IF(K17=0,"",L$34&amp;K17&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -20
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="138.4">
+    <row r="18" spans="1:13" ht="137.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -10997,47 +11010,51 @@
         <v>89</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>30-SUM(E18:K18)</f>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="6">
         <v>3</v>
       </c>
       <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>2</v>
-      </c>
-      <c r="M18" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>5</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f>L$27&amp;IF(30-D18=0, "great","-"&amp;(30-D18))&amp;CHAR(10)&amp;
+IF(E18=0,"",L$28&amp;E18&amp;")"&amp;CHAR(10))&amp;
+IF(F18=0,"",L$29&amp;F18&amp;")"&amp;CHAR(10))&amp;
+IF(G18=0,"",L$30&amp;G18&amp;")"&amp;CHAR(10))&amp;
+IF(H18=0,"",L$31&amp;H18&amp;")"&amp;CHAR(10))&amp;
+IF(I18=0,"",L$32&amp;I18&amp;")"&amp;CHAR(10))&amp;
+IF(J18=0,"",L$33&amp;J18&amp;")"&amp;CHAR(10))&amp;
+IF(K18=0,"",L$34&amp;K18&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 </v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="107.65">
+    <row r="19" spans="1:13" ht="107.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -11048,45 +11065,49 @@
         <v>94</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>30-SUM(E19:K19)</f>
+        <v>13</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -14
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Incorrect count calculation of Thanksgiving Day(-2)
+        <v>0</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f>L$27&amp;IF(30-D19=0, "great","-"&amp;(30-D19))&amp;CHAR(10)&amp;
+IF(E19=0,"",L$28&amp;E19&amp;")"&amp;CHAR(10))&amp;
+IF(F19=0,"",L$29&amp;F19&amp;")"&amp;CHAR(10))&amp;
+IF(G19=0,"",L$30&amp;G19&amp;")"&amp;CHAR(10))&amp;
+IF(H19=0,"",L$31&amp;H19&amp;")"&amp;CHAR(10))&amp;
+IF(I19=0,"",L$32&amp;I19&amp;")"&amp;CHAR(10))&amp;
+IF(J19=0,"",L$33&amp;J19&amp;")"&amp;CHAR(10))&amp;
+IF(K19=0,"",L$34&amp;K19&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -17
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="92.25">
+    <row r="20" spans="1:13" ht="91.5">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -11097,8 +11118,8 @@
         <v>99</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>30-SUM(E20:K20)</f>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
@@ -11110,31 +11131,35 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="6">
         <v>3</v>
       </c>
       <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="6">
-        <v>2</v>
-      </c>
-      <c r="M20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -10
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>5</v>
+      </c>
+      <c r="L20" s="20" t="str">
+        <f>L$27&amp;IF(30-D20=0, "great","-"&amp;(30-D20))&amp;CHAR(10)&amp;
+IF(E20=0,"",L$28&amp;E20&amp;")"&amp;CHAR(10))&amp;
+IF(F20=0,"",L$29&amp;F20&amp;")"&amp;CHAR(10))&amp;
+IF(G20=0,"",L$30&amp;G20&amp;")"&amp;CHAR(10))&amp;
+IF(H20=0,"",L$31&amp;H20&amp;")"&amp;CHAR(10))&amp;
+IF(I20=0,"",L$32&amp;I20&amp;")"&amp;CHAR(10))&amp;
+IF(J20=0,"",L$33&amp;J20&amp;")"&amp;CHAR(10))&amp;
+IF(K20=0,"",L$34&amp;K20&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -15
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 </v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="61.5">
+    <row r="21" spans="1:13" ht="61.5">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -11145,17 +11170,17 @@
         <v>104</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="0"/>
+        <f>30-SUM(E21:K21)</f>
         <v>26</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
@@ -11164,23 +11189,27 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6">
-        <v>3</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="20" t="str">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="20" t="str">
+        <f>L$27&amp;IF(30-D21=0, "great","-"&amp;(30-D21))&amp;CHAR(10)&amp;
+IF(E21=0,"",L$28&amp;E21&amp;")"&amp;CHAR(10))&amp;
+IF(F21=0,"",L$29&amp;F21&amp;")"&amp;CHAR(10))&amp;
+IF(G21=0,"",L$30&amp;G21&amp;")"&amp;CHAR(10))&amp;
+IF(H21=0,"",L$31&amp;H21&amp;")"&amp;CHAR(10))&amp;
+IF(I21=0,"",L$32&amp;I21&amp;")"&amp;CHAR(10))&amp;
+IF(J21=0,"",L$33&amp;J21&amp;")"&amp;CHAR(10))&amp;
+IF(K21=0,"",L$34&amp;K21&amp;")"&amp;CHAR(10))</f>
         <v xml:space="preserve">Question 2: -4
 Incorrect weekday of Independence Day(-1)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="61.5">
+    <row r="22" spans="1:13" ht="61.5">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -11191,8 +11220,8 @@
         <v>109</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>30-SUM(E22:K22)</f>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -11204,29 +11233,33 @@
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="6">
-        <v>3</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -5
-Incorrect count calculation of Thanksgiving Day(-2)
+        <v>0</v>
+      </c>
+      <c r="L22" s="20" t="str">
+        <f>L$27&amp;IF(30-D22=0, "great","-"&amp;(30-D22))&amp;CHAR(10)&amp;
+IF(E22=0,"",L$28&amp;E22&amp;")"&amp;CHAR(10))&amp;
+IF(F22=0,"",L$29&amp;F22&amp;")"&amp;CHAR(10))&amp;
+IF(G22=0,"",L$30&amp;G22&amp;")"&amp;CHAR(10))&amp;
+IF(H22=0,"",L$31&amp;H22&amp;")"&amp;CHAR(10))&amp;
+IF(I22=0,"",L$32&amp;I22&amp;")"&amp;CHAR(10))&amp;
+IF(J22=0,"",L$33&amp;J22&amp;")"&amp;CHAR(10))&amp;
+IF(K22=0,"",L$34&amp;K22&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -6
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect day of Thanksgiving Day(-3)
 </v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="76.900000000000006">
+    <row r="23" spans="1:13" ht="76.5">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -11237,8 +11270,8 @@
         <v>24</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>30-SUM(E23:K23)</f>
+        <v>19</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
@@ -11250,30 +11283,34 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="6">
-        <v>3</v>
-      </c>
-      <c r="L23" s="6">
-        <v>2</v>
-      </c>
-      <c r="M23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -7
-Incorrect count calculation of Thanksgiving Day(-2)
+        <v>5</v>
+      </c>
+      <c r="L23" s="20" t="str">
+        <f>L$27&amp;IF(30-D23=0, "great","-"&amp;(30-D23))&amp;CHAR(10)&amp;
+IF(E23=0,"",L$28&amp;E23&amp;")"&amp;CHAR(10))&amp;
+IF(F23=0,"",L$29&amp;F23&amp;")"&amp;CHAR(10))&amp;
+IF(G23=0,"",L$30&amp;G23&amp;")"&amp;CHAR(10))&amp;
+IF(H23=0,"",L$31&amp;H23&amp;")"&amp;CHAR(10))&amp;
+IF(I23=0,"",L$32&amp;I23&amp;")"&amp;CHAR(10))&amp;
+IF(J23=0,"",L$33&amp;J23&amp;")"&amp;CHAR(10))&amp;
+IF(K23=0,"",L$34&amp;K23&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -11
+Incorrect count calculation of Thanksgiving Day(-3)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 </v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="138.4">
+    <row r="24" spans="1:13" ht="137.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -11284,47 +11321,51 @@
         <v>118</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>30-SUM(E24:K24)</f>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6">
         <v>3</v>
       </c>
       <c r="K24" s="6">
-        <v>3</v>
-      </c>
-      <c r="L24" s="6">
-        <v>2</v>
-      </c>
-      <c r="M24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -20
-Incorrect count calculation of Independence Day(-4)
-Incorrect weekday of Independence Day(-4)
-Wrongly printing Independence Day(-2)
-Incorrect count calculation of Thanksgiving Day(-2)
-Incorrect weekday of Nov 1st(-3)
+        <v>5</v>
+      </c>
+      <c r="L24" s="20" t="str">
+        <f>L$27&amp;IF(30-D24=0, "great","-"&amp;(30-D24))&amp;CHAR(10)&amp;
+IF(E24=0,"",L$28&amp;E24&amp;")"&amp;CHAR(10))&amp;
+IF(F24=0,"",L$29&amp;F24&amp;")"&amp;CHAR(10))&amp;
+IF(G24=0,"",L$30&amp;G24&amp;")"&amp;CHAR(10))&amp;
+IF(H24=0,"",L$31&amp;H24&amp;")"&amp;CHAR(10))&amp;
+IF(I24=0,"",L$32&amp;I24&amp;")"&amp;CHAR(10))&amp;
+IF(J24=0,"",L$33&amp;J24&amp;")"&amp;CHAR(10))&amp;
+IF(K24=0,"",L$34&amp;K24&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -30
+Incorrect count calculation of Independence Day(-5)
+Incorrect weekday of Independence Day(-5)
+Wrongly printing Independence Day(-5)
+Incorrect count calculation of Thanksgiving Day(-3)
+Incorrect weekday of Nov 1st(-4)
 Incorrect day of Thanksgiving Day(-3)
-Wrongly printing Thanksgiving Day(-2)
+Wrongly printing Thanksgiving Day(-5)
 </v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="76.900000000000006">
+    <row r="25" spans="1:13" ht="76.5">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -11335,159 +11376,152 @@
         <v>123</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>30-SUM(E25:K25)</f>
+        <v>23</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
       </c>
       <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Question 2: -6
-Incorrect weekday of Independence Day(-4)
+        <v>0</v>
+      </c>
+      <c r="L25" s="20" t="str">
+        <f>L$27&amp;IF(30-D25=0, "great","-"&amp;(30-D25))&amp;CHAR(10)&amp;
+IF(E25=0,"",L$28&amp;E25&amp;")"&amp;CHAR(10))&amp;
+IF(F25=0,"",L$29&amp;F25&amp;")"&amp;CHAR(10))&amp;
+IF(G25=0,"",L$30&amp;G25&amp;")"&amp;CHAR(10))&amp;
+IF(H25=0,"",L$31&amp;H25&amp;")"&amp;CHAR(10))&amp;
+IF(I25=0,"",L$32&amp;I25&amp;")"&amp;CHAR(10))&amp;
+IF(J25=0,"",L$33&amp;J25&amp;")"&amp;CHAR(10))&amp;
+IF(K25=0,"",L$34&amp;K25&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -7
+Incorrect weekday of Independence Day(-5)
 Incorrect weekday of Nov 1st(-1)
 Incorrect day of Thanksgiving Day(-1)
 </v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:13">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="M27" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="L27" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="M28" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="L28" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="M29" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="L29" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="M30" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="L30" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="M31" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="L31" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="M32" s="17" t="s">
+      <c r="L32" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" s="17" customFormat="1">
+      <c r="L33" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="13:13" s="17" customFormat="1">
-      <c r="M33" s="17" t="s">
+    <row r="34" spans="12:12" s="17" customFormat="1">
+      <c r="L34" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="13:13" s="17" customFormat="1">
-      <c r="M34" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="13:13" s="17" customFormat="1"/>
+    <row r="35" spans="12:12" s="17" customFormat="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E3:E25">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F25">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G25">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H25">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I25">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>$I$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J25">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K25">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>$K$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L25">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
-      <formula>$L$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11561,22 +11595,22 @@
       <c r="C2" s="72"/>
       <c r="D2" s="73"/>
       <c r="E2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="K2" s="75"/>
       <c r="L2" s="14"/>
@@ -12702,7 +12736,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -12719,7 +12753,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -12736,7 +12770,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -12753,7 +12787,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -12770,7 +12804,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -12786,7 +12820,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="K32" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -12802,7 +12836,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="K33" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -12880,9 +12914,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13030,16 +13067,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13047,5 +13081,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}"/>
 </file>